--- a/tabela_precos.xlsx
+++ b/tabela_precos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="1325">
   <si>
     <t>ID DO SERVIÇO</t>
   </si>
@@ -4458,6 +4458,24 @@
   </si>
   <si>
     <t>Sifão</t>
+  </si>
+  <si>
+    <t>Vazamento no sifão plastico sanfonado, sifão quebrado, Vazamento na saída de água da pia, Vazamento de água no armário</t>
+  </si>
+  <si>
+    <t>Troca do sifão tipo sanfonado de metal da cozinha</t>
+  </si>
+  <si>
+    <t>Troca do sifão tipo sanfonado de metal Banheiro</t>
+  </si>
+  <si>
+    <t>Troca do sifão tipo sanfonado de metal lavanderia</t>
+  </si>
+  <si>
+    <t>copo</t>
+  </si>
+  <si>
+    <t>Troca do sifão tipo copo de plástico da lavanderia</t>
   </si>
 </sst>
 </file>
@@ -4849,8 +4867,8 @@
   <dimension ref="A1:O457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5001,7 +5019,7 @@
         <v>1318</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>1291</v>
@@ -5049,7 +5067,7 @@
         <v>1318</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>1291</v>
@@ -5097,7 +5115,7 @@
         <v>1318</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>1291</v>
@@ -5145,7 +5163,7 @@
         <v>1318</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>1291</v>
@@ -5193,7 +5211,7 @@
         <v>1318</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>1287</v>
@@ -5230,7 +5248,7 @@
         <v>1295</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
@@ -5241,7 +5259,7 @@
         <v>1318</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>1287</v>
@@ -5278,7 +5296,7 @@
         <v>1295</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
@@ -5289,7 +5307,7 @@
         <v>1318</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>1287</v>
@@ -5326,7 +5344,7 @@
         <v>1295</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>1297</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
@@ -5337,13 +5355,13 @@
         <v>1318</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>1296</v>
+        <v>1323</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>1306</v>
@@ -5374,7 +5392,7 @@
         <v>1295</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>1297</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -8599,7 +8617,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>185</v>
       </c>
@@ -13790,7 +13808,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>462</v>
       </c>
@@ -13838,7 +13856,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>464</v>
       </c>
@@ -13886,7 +13904,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>466</v>
       </c>
@@ -14414,7 +14432,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>489</v>
       </c>
@@ -14462,7 +14480,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>492</v>
       </c>
